--- a/data/trans_orig/P37C3_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Dificultad-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7532</v>
+        <v>7658</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.003052551545793144</v>
+        <v>0.003052551545793145</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0155151695998</v>
+        <v>0.01577426960248204</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -762,19 +762,19 @@
         <v>3840</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>884</v>
+        <v>1391</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10906</v>
+        <v>11553</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.006207558040589118</v>
+        <v>0.006207558040589119</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001428274786413384</v>
+        <v>0.002248596002421154</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01763035225546586</v>
+        <v>0.01867601167984211</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -783,19 +783,19 @@
         <v>5322</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1609</v>
+        <v>1808</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13536</v>
+        <v>13156</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.004820233791429089</v>
+        <v>0.004820233791429091</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001457533843971373</v>
+        <v>0.00163799672213528</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01225984100224316</v>
+        <v>0.01191635175106621</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>10390</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5442</v>
+        <v>5202</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19368</v>
+        <v>18195</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02140115116444556</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01120981381882056</v>
+        <v>0.01071597198384784</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03989365807121269</v>
+        <v>0.03747742032699335</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -833,19 +833,19 @@
         <v>7859</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3979</v>
+        <v>3906</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14644</v>
+        <v>15310</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01270422027620397</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006431660032513532</v>
+        <v>0.006314497072770958</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02367330797107867</v>
+        <v>0.02474960719490212</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -854,19 +854,19 @@
         <v>18249</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11432</v>
+        <v>11030</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29022</v>
+        <v>27646</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.01652844793926197</v>
+        <v>0.01652844793926198</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01035473675511736</v>
+        <v>0.009990343644534893</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02628612258365915</v>
+        <v>0.02504016954293411</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>65943</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51009</v>
+        <v>49669</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>85137</v>
+        <v>84921</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1358290129768499</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1050692547568906</v>
+        <v>0.102308166229741</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1753661340077738</v>
+        <v>0.1749202851681063</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>60</v>
@@ -904,19 +904,19 @@
         <v>46964</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>36190</v>
+        <v>36030</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>62785</v>
+        <v>61857</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.0759208333143306</v>
+        <v>0.07592083331433061</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05850410719429125</v>
+        <v>0.05824491601160339</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1014968901769684</v>
+        <v>0.09999672591300805</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>117</v>
@@ -925,19 +925,19 @@
         <v>112906</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>93191</v>
+        <v>93566</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>136306</v>
+        <v>138887</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1022637490915051</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08440627159355944</v>
+        <v>0.08474633078040565</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.123457373725233</v>
+        <v>0.1257952683312463</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>112269</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>92744</v>
+        <v>91318</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>136328</v>
+        <v>132916</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2312518027414953</v>
+        <v>0.2312518027414954</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1910343878622368</v>
+        <v>0.1880973088861418</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2808080421374785</v>
+        <v>0.2737796568706228</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>150</v>
@@ -975,19 +975,19 @@
         <v>113622</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>96392</v>
+        <v>95060</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>130320</v>
+        <v>130170</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1836805658420812</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1558262525840459</v>
+        <v>0.1536721163791862</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2106740568960331</v>
+        <v>0.2104308297805523</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>242</v>
@@ -996,19 +996,19 @@
         <v>225891</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>200438</v>
+        <v>199181</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>256578</v>
+        <v>254345</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2045986624044661</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1815442389434528</v>
+        <v>0.1804057330884229</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2323922954413838</v>
+        <v>0.2303699654865045</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>295400</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>268325</v>
+        <v>271210</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>316939</v>
+        <v>317654</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6084654815714159</v>
+        <v>0.608465481571416</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5526961927162386</v>
+        <v>0.5586391212376584</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6528302811205782</v>
+        <v>0.654304153803776</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>630</v>
@@ -1046,19 +1046,19 @@
         <v>446302</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>423812</v>
+        <v>427502</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>466029</v>
+        <v>468545</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7214868225267951</v>
+        <v>0.7214868225267952</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6851295832733461</v>
+        <v>0.6910946617033162</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.753377058576479</v>
+        <v>0.7574443235497084</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>917</v>
@@ -1067,19 +1067,19 @@
         <v>741703</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>705082</v>
+        <v>710139</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>772869</v>
+        <v>772641</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6717889067733378</v>
+        <v>0.6717889067733379</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6386202943865067</v>
+        <v>0.6432008246108364</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.700017237580274</v>
+        <v>0.6998106702790159</v>
       </c>
     </row>
     <row r="9">
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5752</v>
+        <v>5299</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001087673138085981</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.006004434904288534</v>
+        <v>0.005532056913510235</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1192,19 +1192,19 @@
         <v>2718</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1035</v>
+        <v>969</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5974</v>
+        <v>6014</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002441324099679616</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0009298705329706632</v>
+        <v>0.0008706394927231664</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.005367214913038766</v>
+        <v>0.005402981496748433</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1213,19 +1213,19 @@
         <v>3759</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1551</v>
+        <v>1597</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8681</v>
+        <v>8616</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001815222066931175</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.000748702194431374</v>
+        <v>0.0007711848576061547</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.004191556824462511</v>
+        <v>0.004160405574554485</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>6190</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2719</v>
+        <v>2599</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13023</v>
+        <v>12818</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.006461627180149176</v>
+        <v>0.006461627180149175</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002838473883203034</v>
+        <v>0.002713106263277682</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01359465505996376</v>
+        <v>0.01338066878664224</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1263,19 +1263,19 @@
         <v>4815</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2042</v>
+        <v>2146</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9999</v>
+        <v>9917</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004325410603654735</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001834421923876356</v>
+        <v>0.001928216571786356</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.008982464473686705</v>
+        <v>0.008909165137412854</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -1284,19 +1284,19 @@
         <v>11005</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6208</v>
+        <v>6201</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18063</v>
+        <v>18864</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005313471469329795</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002997398706106133</v>
+        <v>0.002994064336831383</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.008721490879286718</v>
+        <v>0.009108587008908412</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>38971</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26363</v>
+        <v>27145</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>52669</v>
+        <v>53621</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.04068267723300914</v>
+        <v>0.04068267723300913</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0275204635285091</v>
+        <v>0.02833769366266395</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0549828986118483</v>
+        <v>0.05597606604747452</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>63</v>
@@ -1334,19 +1334,19 @@
         <v>40454</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30938</v>
+        <v>30652</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>51501</v>
+        <v>51179</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03634260917240181</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02779311228668633</v>
+        <v>0.02753666811803634</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04626644722287145</v>
+        <v>0.04597747519954656</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>99</v>
@@ -1355,19 +1355,19 @@
         <v>79425</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>63372</v>
+        <v>63259</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>96946</v>
+        <v>97447</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.03835001397032236</v>
+        <v>0.03835001397032235</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03059901602033836</v>
+        <v>0.03054439201732935</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04680975876859832</v>
+        <v>0.04705160155293597</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>266445</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>235767</v>
+        <v>235146</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>299343</v>
+        <v>300554</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2781485304396942</v>
+        <v>0.2781485304396941</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2461227656967319</v>
+        <v>0.2454739370460596</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3124912260939779</v>
+        <v>0.3137548511602683</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>341</v>
@@ -1405,19 +1405,19 @@
         <v>245336</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>223654</v>
+        <v>221834</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>270702</v>
+        <v>271216</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2204006218691381</v>
+        <v>0.2204006218691382</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2009224324151233</v>
+        <v>0.1992874887380511</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2431882579158566</v>
+        <v>0.2436497973845475</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>577</v>
@@ -1426,19 +1426,19 @@
         <v>511781</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>473082</v>
+        <v>473207</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>553212</v>
+        <v>551931</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2471106704480053</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2284251273640653</v>
+        <v>0.2284853891707433</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2671153605612743</v>
+        <v>0.2664965821919198</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>645277</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>608410</v>
+        <v>610613</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>677128</v>
+        <v>675644</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6736194920090617</v>
+        <v>0.6736194920090616</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6351336534366987</v>
+        <v>0.6374331649247581</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7068694044530059</v>
+        <v>0.7053207562936566</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1187</v>
@@ -1476,19 +1476,19 @@
         <v>819814</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>795502</v>
+        <v>791899</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>846153</v>
+        <v>844512</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7364900342551257</v>
+        <v>0.7364900342551258</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7146489049971504</v>
+        <v>0.7114118650862584</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7601518575432975</v>
+        <v>0.7586771728645596</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1814</v>
@@ -1497,19 +1497,19 @@
         <v>1465091</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1421303</v>
+        <v>1423937</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1503169</v>
+        <v>1506754</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7074106220454115</v>
+        <v>0.7074106220454114</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6862681296157337</v>
+        <v>0.6875396720177166</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7257966186767487</v>
+        <v>0.7275274188488571</v>
       </c>
     </row>
     <row r="15">
@@ -1604,16 +1604,16 @@
         <v>833</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8876</v>
+        <v>8323</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00334420287147773</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0007985958189789408</v>
+        <v>0.0007980415596999753</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008506615591970695</v>
+        <v>0.007976506595838507</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4572</v>
+        <v>4230</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001346526392283274</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.004390369598466784</v>
+        <v>0.004062136983841773</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1643,19 +1643,19 @@
         <v>4892</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1615</v>
+        <v>1996</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10516</v>
+        <v>10645</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002346398085627063</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0007744938860116509</v>
+        <v>0.0009574240137587966</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.00504414158725992</v>
+        <v>0.005105978097191684</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>9849</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4729</v>
+        <v>4906</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20791</v>
+        <v>20523</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.009438418964368775</v>
+        <v>0.009438418964368776</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004532410574737933</v>
+        <v>0.004701972680543616</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01992543714468556</v>
+        <v>0.01966795661002969</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1693,19 +1693,19 @@
         <v>4356</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8394</v>
+        <v>8942</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.00418360770287562</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001787930753144852</v>
+        <v>0.001785118601160716</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.008060899720573453</v>
+        <v>0.008587487673833417</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -1714,19 +1714,19 @@
         <v>14205</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7635</v>
+        <v>7604</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24092</v>
+        <v>25236</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.006813731794014669</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003662483989203121</v>
+        <v>0.0036476117492332</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0115563308345501</v>
+        <v>0.01210485164463957</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>37006</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26325</v>
+        <v>25972</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50522</v>
+        <v>50990</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03546459387481467</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02522813058014104</v>
+        <v>0.02488971055335142</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04841758244649839</v>
+        <v>0.04886575703676391</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>38</v>
@@ -1764,19 +1764,19 @@
         <v>30837</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21163</v>
+        <v>22233</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>44561</v>
+        <v>44516</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.029613479106899</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02032373038539141</v>
+        <v>0.02135081858630622</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04279353742255799</v>
+        <v>0.04274965592812147</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>74</v>
@@ -1785,19 +1785,19 @@
         <v>67843</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>52843</v>
+        <v>52896</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>87550</v>
+        <v>86082</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0325420634356807</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02534691674233203</v>
+        <v>0.02537276097793048</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04199512179589496</v>
+        <v>0.04129075374656004</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>218130</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>194241</v>
+        <v>190369</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>244775</v>
+        <v>245814</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2090441175393784</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1861499136713562</v>
+        <v>0.182439323107854</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2345793715785126</v>
+        <v>0.2355744963349089</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>285</v>
@@ -1835,19 +1835,19 @@
         <v>191681</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>169995</v>
+        <v>171215</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>213670</v>
+        <v>216157</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1840771702022328</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1632511699601567</v>
+        <v>0.1644228805882139</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.205193654648279</v>
+        <v>0.2075821734927415</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>493</v>
@@ -1856,19 +1856,19 @@
         <v>409811</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>374310</v>
+        <v>375649</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>446081</v>
+        <v>445520</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1965735599688497</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.179544633027291</v>
+        <v>0.1801871059283117</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2139713162974188</v>
+        <v>0.2137021047219366</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>774990</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>742571</v>
+        <v>744114</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>803054</v>
+        <v>801176</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7427086667499605</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7116398001114879</v>
+        <v>0.7131186638401931</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7696040225635493</v>
+        <v>0.7678044707329004</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1175</v>
@@ -1906,19 +1906,19 @@
         <v>813031</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>787569</v>
+        <v>786637</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>835164</v>
+        <v>836126</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7807792165957093</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7563274763561377</v>
+        <v>0.7554319263037134</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8020345363395417</v>
+        <v>0.8029584268793488</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1945</v>
@@ -1927,19 +1927,19 @@
         <v>1588021</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1551321</v>
+        <v>1548435</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1626046</v>
+        <v>1626007</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7617242467158278</v>
+        <v>0.7617242467158279</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7441204359653995</v>
+        <v>0.742735947715794</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7799636688684602</v>
+        <v>0.7799449031311853</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>3767</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11750</v>
+        <v>9993</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.003899208621853259</v>
+        <v>0.00389920862185326</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0008612975244057776</v>
+        <v>0.0008482436150501636</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01216176650880715</v>
+        <v>0.01034330937338433</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2052,19 +2052,19 @@
         <v>4056</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12841</v>
+        <v>11908</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004490651249840888</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0006822135000391455</v>
+        <v>0.0006794750950637441</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01421834596750955</v>
+        <v>0.0131848256284321</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -2073,19 +2073,19 @@
         <v>7823</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3075</v>
+        <v>3249</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16650</v>
+        <v>17729</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.004184960423212184</v>
+        <v>0.004184960423212185</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00164509336342452</v>
+        <v>0.001737933698578785</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.008907122913352369</v>
+        <v>0.009484369003817316</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>12377</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7617</v>
+        <v>7110</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21572</v>
+        <v>22634</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01281038843169819</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.007883367588613594</v>
+        <v>0.007359127032092062</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02232694213192061</v>
+        <v>0.02342584885984705</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -2123,19 +2123,19 @@
         <v>5747</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2756</v>
+        <v>2861</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11882</v>
+        <v>11806</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.006362730754898702</v>
+        <v>0.006362730754898703</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003051169474560378</v>
+        <v>0.003167367085436904</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01315563517460156</v>
+        <v>0.01307145375137091</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>23</v>
@@ -2144,19 +2144,19 @@
         <v>18124</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11938</v>
+        <v>11161</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>28712</v>
+        <v>27689</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.009695243008447273</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006386016833671701</v>
+        <v>0.005970749404526586</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01535938758604705</v>
+        <v>0.01481203207935176</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>52920</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>38541</v>
+        <v>38713</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>74889</v>
+        <v>74736</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05477260251659734</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03989059502018881</v>
+        <v>0.04006850418942735</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07751079808130636</v>
+        <v>0.07735196479400755</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>39</v>
@@ -2194,19 +2194,19 @@
         <v>32112</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23015</v>
+        <v>21830</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47266</v>
+        <v>47255</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.03555524500637635</v>
+        <v>0.03555524500637636</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02548298376324917</v>
+        <v>0.02417055175115398</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05233360370015628</v>
+        <v>0.05232137280657426</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>80</v>
@@ -2215,19 +2215,19 @@
         <v>85032</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>64037</v>
+        <v>66147</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>108612</v>
+        <v>109268</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04548785659865687</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03425673249700828</v>
+        <v>0.03538548835031632</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0581017613835531</v>
+        <v>0.05845255830915574</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>215918</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>191058</v>
+        <v>190710</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>245352</v>
+        <v>246204</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2234760947960998</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1977456893547662</v>
+        <v>0.1973856671455052</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2539402016221313</v>
+        <v>0.2548219253579465</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>381</v>
@@ -2265,19 +2265,19 @@
         <v>211817</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>190339</v>
+        <v>190363</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>234036</v>
+        <v>234104</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.234529417155573</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2107484249964967</v>
+        <v>0.210775150794692</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2591309932134794</v>
+        <v>0.2592062259753317</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>613</v>
@@ -2286,19 +2286,19 @@
         <v>427735</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>391425</v>
+        <v>392761</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>461794</v>
+        <v>463797</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2288164382643532</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2093926478614883</v>
+        <v>0.2101073703333394</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2470360547703049</v>
+        <v>0.248107835301932</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>681196</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>650102</v>
+        <v>649905</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>710258</v>
+        <v>710769</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7050417056337513</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.672858735919637</v>
+        <v>0.6726547431976699</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7351203543357239</v>
+        <v>0.7356497093638592</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>879</v>
@@ -2336,19 +2336,19 @@
         <v>649427</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>625743</v>
+        <v>624033</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>673950</v>
+        <v>672231</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7190619558333111</v>
+        <v>0.7190619558333112</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6928380665360011</v>
+        <v>0.6909444686745403</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7462140901002597</v>
+        <v>0.744310482565809</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1528</v>
@@ -2357,19 +2357,19 @@
         <v>1330623</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1291188</v>
+        <v>1288791</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1372542</v>
+        <v>1366517</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7118155017053305</v>
+        <v>0.7118155017053304</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6907196795298989</v>
+        <v>0.6894374941206758</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7342397946103095</v>
+        <v>0.7310171638902906</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>9781</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4693</v>
+        <v>4774</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18869</v>
+        <v>18209</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002832498135816339</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001359091501179173</v>
+        <v>0.001382465429072467</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.00546446673386666</v>
+        <v>0.005273327773060555</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>14</v>
@@ -2482,19 +2482,19 @@
         <v>12015</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6550</v>
+        <v>6883</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>21042</v>
+        <v>22927</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.003268427889563345</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001781637699448466</v>
+        <v>0.001872292437946828</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.005723739061480617</v>
+        <v>0.006236642695413799</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>23</v>
@@ -2503,19 +2503,19 @@
         <v>21796</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>14109</v>
+        <v>14009</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>34493</v>
+        <v>33521</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.00305728509857118</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001978978397779384</v>
+        <v>0.00196505670268801</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.004838188847731297</v>
+        <v>0.004701971296991595</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>38805</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>27332</v>
+        <v>28642</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>54005</v>
+        <v>53016</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01123801401202916</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007915326263356203</v>
+        <v>0.008294817276086377</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01563990253403907</v>
+        <v>0.01535329766691584</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>33</v>
@@ -2553,19 +2553,19 @@
         <v>22776</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>15582</v>
+        <v>16309</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>31616</v>
+        <v>31082</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.00619565868771017</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.004238596820256096</v>
+        <v>0.004436448080379018</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.008600323570878986</v>
+        <v>0.008454860597606974</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>73</v>
@@ -2574,19 +2574,19 @@
         <v>61582</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>47836</v>
+        <v>49123</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>79816</v>
+        <v>80439</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.008637925973206801</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006709857255676265</v>
+        <v>0.006890317956609704</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01119551386267974</v>
+        <v>0.01128292295892989</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>194840</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>168276</v>
+        <v>167371</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>228821</v>
+        <v>227856</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.0564254190379902</v>
+        <v>0.05642541903799021</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0487324879822383</v>
+        <v>0.04847061118049185</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06626628945361349</v>
+        <v>0.06598677411239599</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>200</v>
@@ -2624,19 +2624,19 @@
         <v>150367</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>129329</v>
+        <v>128607</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>178400</v>
+        <v>173615</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04090286707378331</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03518009443760643</v>
+        <v>0.03498366690284697</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04852841969452324</v>
+        <v>0.0472268764125901</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>370</v>
@@ -2645,19 +2645,19 @@
         <v>345207</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>307762</v>
+        <v>307573</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>385617</v>
+        <v>388248</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.04842122276497492</v>
+        <v>0.0484212227649749</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0431689958862457</v>
+        <v>0.04314247637851355</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05408941989248899</v>
+        <v>0.05445854111814712</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>812762</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>760993</v>
+        <v>763303</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>874332</v>
+        <v>869481</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2353750780158458</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2203829229848193</v>
+        <v>0.2210518797802239</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2532055454940663</v>
+        <v>0.2518008475404813</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1157</v>
@@ -2695,19 +2695,19 @@
         <v>762456</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>720911</v>
+        <v>719812</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>808289</v>
+        <v>802927</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2074040431557138</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.196102837632172</v>
+        <v>0.1958037382780421</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.219871513774975</v>
+        <v>0.2184128361411763</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1925</v>
@@ -2716,19 +2716,19 @@
         <v>1575219</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1506006</v>
+        <v>1506871</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1644922</v>
+        <v>1639632</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2209518276704063</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2112435090274185</v>
+        <v>0.2113649262484717</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.230728847701816</v>
+        <v>0.229986916318087</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>2396863</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2327897</v>
+        <v>2335581</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2452459</v>
+        <v>2452649</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6941289907983186</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6741565516590585</v>
+        <v>0.676381746184435</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7102294933284109</v>
+        <v>0.7102847134751052</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3871</v>
@@ -2766,19 +2766,19 @@
         <v>2728574</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2683282</v>
+        <v>2684085</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2775749</v>
+        <v>2772987</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7422290031932296</v>
+        <v>0.7422290031932295</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7299086995383309</v>
+        <v>0.7301269470134021</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7550616781963643</v>
+        <v>0.7543103635297088</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6204</v>
@@ -2787,19 +2787,19 @@
         <v>5125438</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5048868</v>
+        <v>5048198</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5206836</v>
+        <v>5193509</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7189317384928409</v>
+        <v>0.7189317384928408</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7081915435925307</v>
+        <v>0.7080975030442831</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.730349326575186</v>
+        <v>0.7284799689633255</v>
       </c>
     </row>
     <row r="33">
